--- a/menu_files/chef_weekly_orderSheet_St_Laurences.xlsx
+++ b/menu_files/chef_weekly_orderSheet_St_Laurences.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +49,11 @@
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -67,6 +70,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
         <bgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -100,6 +109,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,16 +700,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>3</v>
+          <t>Total for Ms Ward</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -708,11 +716,11 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -723,11 +731,11 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -738,11 +746,11 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -753,11 +761,11 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +776,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Pasta Salad Box</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
@@ -783,11 +791,11 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Pasta Salad Box</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -798,7 +806,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
@@ -813,22 +821,22 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
@@ -838,16 +846,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Sausages with mashed potatoes and beans</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms O Dwyer</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -858,11 +862,11 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -873,11 +877,11 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -888,11 +892,11 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -903,11 +907,11 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -918,11 +922,11 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -933,11 +937,11 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +952,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C32" s="4" t="n">
@@ -963,7 +967,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
@@ -978,7 +982,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
@@ -993,7 +997,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
@@ -1003,12 +1007,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
@@ -1018,31 +1022,27 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Whelan</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1053,11 +1053,11 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Wrap</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1113,11 +1113,11 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Chicken Caesar Wrap</t>
         </is>
       </c>
       <c r="C44" s="4" t="n">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1158,11 +1158,11 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
         </is>
       </c>
       <c r="C48" s="4" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
@@ -1213,22 +1213,22 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Traditional Soup with bread (Gluten Free)</t>
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -1237,37 +1237,33 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Mahon</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1278,11 +1274,11 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1293,37 +1289,37 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Wrap</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
@@ -1333,46 +1329,42 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Chicken Caesar Wrap</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1383,11 +1375,11 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1398,7 +1390,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C62" s="4" t="n">
@@ -1413,11 +1405,11 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1428,22 +1420,22 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C64" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
@@ -1453,12 +1445,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C66" s="4" t="n">
@@ -1468,12 +1460,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
@@ -1483,12 +1475,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C68" s="4" t="n">
@@ -1498,12 +1490,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Wrap</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
@@ -1513,16 +1505,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Leidierth</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -1533,7 +1521,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
@@ -1543,42 +1531,42 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C72" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C74" s="4" t="n">
@@ -1588,12 +1576,12 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken Caesar Wrap</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
@@ -1603,7 +1591,7 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -1618,12 +1606,12 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
@@ -1633,16 +1621,12 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
-        </is>
-      </c>
-      <c r="B78" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="C78" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Tomlinson</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -1653,11 +1637,11 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1668,22 +1652,22 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
@@ -1693,27 +1677,27 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C82" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C83" s="4" t="n">
@@ -1723,12 +1707,12 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C84" s="4" t="n">
@@ -1738,12 +1722,12 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C85" s="4" t="n">
@@ -1753,12 +1737,12 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C86" s="4" t="n">
@@ -1768,12 +1752,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C87" s="4" t="n">
@@ -1783,102 +1767,98 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>Plain Pasta Pot</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="n">
-        <v>4</v>
+          <t>Total for Ms O Boyle</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C89" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Pasta Salad Box</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C90" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C92" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C93" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C94" s="4" t="n">
@@ -1888,12 +1868,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C95" s="4" t="n">
@@ -1903,16 +1883,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
-        </is>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Gallagher</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="n"/>
+      <c r="C96" s="5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -1923,37 +1899,37 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C98" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Pasta Salad Box</t>
         </is>
       </c>
       <c r="C99" s="4" t="n">
@@ -1963,57 +1939,57 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C103" s="4" t="n">
@@ -2023,12 +1999,12 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C104" s="4" t="n">
@@ -2038,27 +2014,27 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C105" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C106" s="4" t="n">
@@ -2068,42 +2044,38 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n"/>
+      <c r="C107" s="5" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C109" s="4" t="n">
@@ -2113,12 +2085,12 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C110" s="4" t="n">
@@ -2128,12 +2100,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C111" s="4" t="n">
@@ -2143,21 +2115,229 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="n"/>
+      <c r="C114" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Sweet chilli chicken wrap</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Total for Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="n"/>
+      <c r="C121" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>Fish fingers with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n"/>
+      <c r="C124" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="B125" s="4" t="inlineStr">
         <is>
           <t>Tex Mex Nachos</t>
         </is>
       </c>
-      <c r="C112" s="4" t="n">
+      <c r="C125" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>Total for Unknown</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="n"/>
+      <c r="C126" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="15">
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2170,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2375,16 +2555,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Roast chicken lunch NO GRAVY</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Ward</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2395,11 +2571,11 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2410,11 +2586,11 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2425,11 +2601,11 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2440,11 +2616,11 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2455,11 +2631,11 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2470,11 +2646,11 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2485,11 +2661,11 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2500,11 +2676,11 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2515,22 +2691,22 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
@@ -2540,16 +2716,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms O Dwyer</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -2560,11 +2732,11 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2575,7 +2747,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
@@ -2590,11 +2762,11 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2605,11 +2777,11 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2620,11 +2792,11 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2635,7 +2807,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
@@ -2650,11 +2822,11 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2665,11 +2837,11 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2680,7 +2852,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
@@ -2695,11 +2867,11 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2710,7 +2882,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
@@ -2720,46 +2892,42 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Whelan</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -2770,11 +2938,11 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2785,7 +2953,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
@@ -2800,7 +2968,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Traditional Soup with bread (Gluten Free)</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
@@ -2815,11 +2983,11 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2830,11 +2998,11 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2845,11 +3013,11 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2860,11 +3028,11 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2875,7 +3043,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
@@ -2890,7 +3058,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C48" s="4" t="n">
@@ -2905,7 +3073,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
@@ -2915,27 +3083,27 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
@@ -2945,31 +3113,27 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Mahon</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -2980,11 +3144,11 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2995,7 +3159,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
@@ -3010,11 +3174,11 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3025,37 +3189,37 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Traditional Vegetable Soup</t>
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
@@ -3065,22 +3229,22 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C60" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3089,22 +3253,18 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3115,11 +3275,11 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3130,7 +3290,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C64" s="4" t="n">
@@ -3145,11 +3305,11 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3160,11 +3320,11 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C66" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3175,11 +3335,11 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3190,11 +3350,11 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C68" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3205,7 +3365,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Traditional Vegetable Soup</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
@@ -3215,12 +3375,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C70" s="4" t="n">
@@ -3230,12 +3390,12 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
@@ -3245,12 +3405,12 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C72" s="4" t="n">
@@ -3260,12 +3420,12 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
@@ -3275,12 +3435,12 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C74" s="4" t="n">
@@ -3290,16 +3450,12 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Leidierth</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -3310,7 +3466,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Traditional Vegetable Soup</t>
         </is>
       </c>
       <c r="C76" s="4" t="n">
@@ -3325,7 +3481,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
@@ -3340,11 +3496,11 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C78" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3355,7 +3511,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
@@ -3370,7 +3526,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C80" s="4" t="n">
@@ -3380,27 +3536,27 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C82" s="4" t="n">
@@ -3410,7 +3566,7 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -3419,43 +3575,43 @@
         </is>
       </c>
       <c r="C83" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C85" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -3470,16 +3626,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Tomlinson</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -3490,7 +3642,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C88" s="4" t="n">
@@ -3505,7 +3657,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C89" s="4" t="n">
@@ -3515,12 +3667,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C90" s="4" t="n">
@@ -3530,57 +3682,57 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C92" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C93" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C94" s="4" t="n">
@@ -3590,12 +3742,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C95" s="4" t="n">
@@ -3605,31 +3757,27 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C96" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
-        </is>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="n">
-        <v>2</v>
+          <t>Total for Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="n"/>
+      <c r="C97" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -3640,11 +3788,11 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C98" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3655,11 +3803,11 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C99" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -3670,7 +3818,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C100" s="4" t="n">
@@ -3685,22 +3833,22 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C102" s="4" t="n">
@@ -3710,27 +3858,27 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C104" s="4" t="n">
@@ -3740,12 +3888,12 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C105" s="4" t="n">
@@ -3755,12 +3903,12 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C106" s="4" t="n">
@@ -3770,12 +3918,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C107" s="4" t="n">
@@ -3785,12 +3933,12 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C108" s="4" t="n">
@@ -3800,57 +3948,53 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
-        </is>
-      </c>
-      <c r="B110" s="4" t="inlineStr">
-        <is>
-          <t>Plain Pasta Pot</t>
-        </is>
-      </c>
-      <c r="C110" s="4" t="n">
-        <v>4</v>
+          <t>Total for Ms O Boyle</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="n"/>
+      <c r="C110" s="5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C112" s="4" t="n">
@@ -3860,42 +4004,42 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C115" s="4" t="n">
@@ -3905,12 +4049,12 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C116" s="4" t="n">
@@ -3920,12 +4064,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C117" s="4" t="n">
@@ -3935,12 +4079,12 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C118" s="4" t="n">
@@ -3950,16 +4094,12 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
-        </is>
-      </c>
-      <c r="B119" s="4" t="inlineStr">
-        <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
-        </is>
-      </c>
-      <c r="C119" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Gallagher</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="n"/>
+      <c r="C119" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -3970,11 +4110,11 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -3985,7 +4125,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C121" s="4" t="n">
@@ -4000,11 +4140,11 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C122" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -4015,22 +4155,22 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C123" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C124" s="4" t="n">
@@ -4040,12 +4180,12 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C125" s="4" t="n">
@@ -4055,12 +4195,12 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C126" s="4" t="n">
@@ -4070,12 +4210,12 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C127" s="4" t="n">
@@ -4085,27 +4225,27 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C128" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C129" s="4" t="n">
@@ -4115,12 +4255,12 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C130" s="4" t="n">
@@ -4130,12 +4270,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C131" s="4" t="n">
@@ -4145,12 +4285,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C132" s="4" t="n">
@@ -4160,21 +4300,241 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
+          <t>Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="n"/>
+      <c r="C134" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="n"/>
+      <c r="C140" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="n"/>
+      <c r="C144" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>Total for Unknown</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="n"/>
+      <c r="C146" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
           <t>Ms o Hanlon</t>
         </is>
       </c>
-      <c r="B133" s="4" t="inlineStr">
+      <c r="B147" s="4" t="inlineStr">
         <is>
           <t>Toasted Cheese Panini</t>
         </is>
       </c>
-      <c r="C133" s="4" t="n">
+      <c r="C147" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms o Hanlon</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="n"/>
+      <c r="C148" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8821,7 +9181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9026,16 +9386,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Roast chicken lunch</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>3</v>
+          <t>Total for Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -9046,11 +9402,11 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -9061,7 +9417,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
@@ -9076,7 +9432,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
@@ -9091,7 +9447,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
@@ -9106,7 +9462,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
@@ -9121,7 +9477,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
@@ -9136,11 +9492,11 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -9151,11 +9507,11 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -9166,11 +9522,11 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -9181,22 +9537,22 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
@@ -9206,16 +9562,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Boyle</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -9226,11 +9578,11 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -9241,7 +9593,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
@@ -9256,11 +9608,11 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -9271,7 +9623,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
@@ -9286,7 +9638,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
@@ -9301,7 +9653,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C32" s="4" t="n">
@@ -9311,12 +9663,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
@@ -9326,7 +9678,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -9341,16 +9693,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Gallagher</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -9361,7 +9709,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
@@ -9376,11 +9724,11 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9391,7 +9739,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
@@ -9406,11 +9754,11 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -9421,11 +9769,11 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -9436,7 +9784,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
@@ -9451,11 +9799,11 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -9466,7 +9814,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
@@ -9481,7 +9829,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C44" s="4" t="n">
@@ -9496,7 +9844,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
@@ -9506,27 +9854,27 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Ham Salad with Brown Bread</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
@@ -9536,12 +9884,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C48" s="4" t="n">
@@ -9551,16 +9899,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Mahon</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="5" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -9571,11 +9915,11 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -9586,7 +9930,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Ham Salad with Brown Bread</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
@@ -9601,7 +9945,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C52" s="4" t="n">
@@ -9616,11 +9960,11 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -9631,11 +9975,11 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -9646,7 +9990,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
@@ -9656,27 +10000,27 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
@@ -9686,46 +10030,42 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Pasta Salad Box</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Roast chicken lunch NO GRAVY</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Leidierth</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -9736,11 +10076,11 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -9751,11 +10091,11 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -9766,7 +10106,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
@@ -9781,7 +10121,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Pasta Salad Box</t>
         </is>
       </c>
       <c r="C64" s="4" t="n">
@@ -9796,7 +10136,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
@@ -9811,37 +10151,37 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C66" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C68" s="4" t="n">
@@ -9851,12 +10191,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
@@ -9866,12 +10206,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C70" s="4" t="n">
@@ -9881,31 +10221,27 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms O Dwyer</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="5" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -9916,11 +10252,11 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -9931,11 +10267,11 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C74" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -9946,7 +10282,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
@@ -9961,11 +10297,11 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C76" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -9976,37 +10312,37 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C78" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
@@ -10016,57 +10352,57 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C82" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C83" s="4" t="n">
@@ -10076,27 +10412,23 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Ms Ward</t>
-        </is>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Whelan</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C85" s="4" t="n">
@@ -10106,7 +10438,7 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -10121,12 +10453,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C87" s="4" t="n">
@@ -10136,22 +10468,22 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -10166,27 +10498,27 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C90" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Ward</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C91" s="4" t="n">
@@ -10196,42 +10528,38 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
-        </is>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>Plain Pasta Pot</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Ward</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C93" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C94" s="4" t="n">
@@ -10241,12 +10569,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C95" s="4" t="n">
@@ -10256,72 +10584,68 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C96" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms O Grady</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
-        </is>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="n"/>
+      <c r="C98" s="5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C99" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C100" s="4" t="n">
@@ -10331,12 +10655,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C101" s="4" t="n">
@@ -10346,27 +10670,27 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C102" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C103" s="4" t="n">
@@ -10376,12 +10700,12 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C104" s="4" t="n">
@@ -10391,87 +10715,83 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C106" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="n">
-        <v>3</v>
+          <t>Total for Ms Tomlinson</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n"/>
+      <c r="C107" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C110" s="4" t="n">
@@ -10481,12 +10801,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C111" s="4" t="n">
@@ -10496,27 +10816,27 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Meat free salad Box</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C113" s="4" t="n">
@@ -10526,21 +10846,241 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Total for Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n"/>
+      <c r="C116" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="n"/>
+      <c r="C121" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n"/>
+      <c r="C125" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>Meat free salad Box</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Total for Unknown</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="n"/>
+      <c r="C127" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
           <t>Ms o Hanlon</t>
         </is>
       </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="B128" s="4" t="inlineStr">
         <is>
           <t>Toasted Cheese Panini</t>
         </is>
       </c>
-      <c r="C114" s="4" t="n">
+      <c r="C128" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms o Hanlon</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="n"/>
+      <c r="C129" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17931,7 +18471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18121,16 +18661,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Roast chicken lunch NO GRAVY</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Ward</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -18141,7 +18677,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C14" s="4" t="n">
@@ -18156,11 +18692,11 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -18171,11 +18707,11 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -18186,11 +18722,11 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Wrap</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -18201,11 +18737,11 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken Caesar Wrap</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -18216,11 +18752,11 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -18231,11 +18767,11 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -18246,11 +18782,11 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -18261,11 +18797,11 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -18276,11 +18812,11 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -18291,41 +18827,37 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Pasta with Tomato and basil sauce</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>3</v>
+          <t>Total for Ms O Dwyer</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -18336,11 +18868,11 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -18351,11 +18883,11 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -18366,11 +18898,11 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -18381,7 +18913,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
@@ -18396,11 +18928,11 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -18411,11 +18943,11 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -18426,7 +18958,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
@@ -18441,11 +18973,11 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -18456,11 +18988,11 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -18471,11 +19003,11 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -18486,7 +19018,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
@@ -18496,46 +19028,42 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Whelan</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -18546,11 +19074,11 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -18561,11 +19089,11 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -18576,11 +19104,11 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -18591,7 +19119,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C44" s="4" t="n">
@@ -18606,7 +19134,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
@@ -18621,7 +19149,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C46" s="4" t="n">
@@ -18636,11 +19164,11 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -18651,7 +19179,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C48" s="4" t="n">
@@ -18666,7 +19194,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
@@ -18681,11 +19209,11 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -18696,7 +19224,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
@@ -18711,37 +19239,37 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C54" s="4" t="n">
@@ -18751,12 +19279,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
@@ -18766,16 +19294,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Mahon</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -18786,11 +19310,11 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -18801,7 +19325,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C58" s="4" t="n">
@@ -18816,11 +19340,11 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -18831,11 +19355,11 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C60" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -18846,86 +19370,82 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C64" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="C66" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -18936,11 +19456,11 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -18951,11 +19471,11 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C68" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -18966,11 +19486,11 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -18981,11 +19501,11 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C70" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -18996,7 +19516,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
@@ -19006,12 +19526,12 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Sweet chilli chicken wrap</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C72" s="4" t="n">
@@ -19021,76 +19541,72 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C74" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C76" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="inlineStr">
-        <is>
-          <t>Plain Pasta Pot</t>
-        </is>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Leidierth</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -19101,7 +19617,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Sweet chilli chicken wrap</t>
         </is>
       </c>
       <c r="C78" s="4" t="n">
@@ -19116,11 +19632,11 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -19131,11 +19647,11 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -19146,22 +19662,22 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C82" s="4" t="n">
@@ -19171,7 +19687,7 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -19186,27 +19702,27 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C84" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C85" s="4" t="n">
@@ -19216,12 +19732,12 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C86" s="4" t="n">
@@ -19231,12 +19747,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C87" s="4" t="n">
@@ -19246,16 +19762,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Ham and Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Tomlinson</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -19266,7 +19778,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C89" s="4" t="n">
@@ -19281,7 +19793,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C90" s="4" t="n">
@@ -19296,11 +19808,11 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -19311,22 +19823,22 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C92" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C93" s="4" t="n">
@@ -19336,57 +19848,57 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C94" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C95" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C96" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C97" s="4" t="n">
@@ -19396,46 +19908,42 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C98" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C99" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
-        </is>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>Plain Pasta Pot</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>1</v>
+          <t>Total for Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n"/>
+      <c r="C100" s="5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -19446,7 +19954,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C101" s="4" t="n">
@@ -19461,11 +19969,11 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -19476,11 +19984,11 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -19491,22 +19999,22 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C104" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C105" s="4" t="n">
@@ -19516,72 +20024,72 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C106" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C107" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C110" s="4" t="n">
@@ -19591,12 +20099,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C111" s="4" t="n">
@@ -19606,162 +20114,158 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
-        </is>
-      </c>
-      <c r="B113" s="4" t="inlineStr">
-        <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
-        </is>
-      </c>
-      <c r="C113" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Boyle</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C118" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C122" s="4" t="n">
@@ -19771,16 +20275,12 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="inlineStr">
-        <is>
-          <t>Sausages with mashed potatoes and beans</t>
-        </is>
-      </c>
-      <c r="C123" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Gallagher</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n"/>
+      <c r="C123" s="5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -19791,52 +20291,52 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C127" s="4" t="n">
@@ -19846,12 +20346,12 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C128" s="4" t="n">
@@ -19861,42 +20361,42 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C129" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C130" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C131" s="4" t="n">
@@ -19906,12 +20406,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C132" s="4" t="n">
@@ -19921,12 +20421,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Ham Salad with Brown Bread</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C133" s="4" t="n">
@@ -19936,21 +20436,241 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
+          <t>Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="n"/>
+      <c r="C135" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="n"/>
+      <c r="C142" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="n"/>
+      <c r="C145" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Ham Salad with Brown Bread</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>Total for Unknown</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="n"/>
+      <c r="C147" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
           <t>Ms o Hanlon</t>
         </is>
       </c>
-      <c r="B134" s="4" t="inlineStr">
+      <c r="B148" s="4" t="inlineStr">
         <is>
           <t>Toasted Cheese Panini</t>
         </is>
       </c>
-      <c r="C134" s="4" t="n">
+      <c r="C148" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms o Hanlon</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="n"/>
+      <c r="C149" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A147:B147"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A145:B145"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24647,7 +25367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24867,16 +25587,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Ms O Dwyer</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Chicken Curry Madras</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>2</v>
+          <t>Total for Ms Ward</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -24887,11 +25603,11 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -24902,11 +25618,11 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -24917,11 +25633,11 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Chicken Caesar Wrap</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -24932,11 +25648,11 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Pasta Salad Box</t>
+          <t>Chicken Caesar Wrap</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -24947,7 +25663,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Pasta Salad Box</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
@@ -24962,11 +25678,11 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -24977,11 +25693,11 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -24992,7 +25708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
@@ -25007,11 +25723,11 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -25022,7 +25738,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
@@ -25037,11 +25753,11 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -25052,7 +25768,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
@@ -25062,31 +25778,27 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
+          <t>Ms O Dwyer</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Ms Whelan</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Dwyer</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -25097,11 +25809,11 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -25112,11 +25824,11 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -25127,7 +25839,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C32" s="4" t="n">
@@ -25142,11 +25854,11 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -25157,11 +25869,11 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -25172,11 +25884,11 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -25187,11 +25899,11 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -25202,7 +25914,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
@@ -25217,11 +25929,11 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -25232,7 +25944,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
@@ -25247,7 +25959,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
@@ -25257,46 +25969,42 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
+          <t>Ms Whelan</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Ms Mahon</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Whelan</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -25307,11 +26015,11 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -25322,11 +26030,11 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -25337,7 +26045,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C46" s="4" t="n">
@@ -25352,11 +26060,11 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -25367,11 +26075,11 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -25382,11 +26090,11 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Ham Salad with Brown Bread</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -25397,11 +26105,11 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Traditional Soup with bread (Gluten Free)</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -25412,7 +26120,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
@@ -25427,11 +26135,11 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Ham Salad with Brown Bread</t>
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -25442,7 +26150,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Traditional Soup with bread (Gluten Free)</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
@@ -25457,7 +26165,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C54" s="4" t="n">
@@ -25467,12 +26175,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
@@ -25482,12 +26190,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C56" s="4" t="n">
@@ -25497,31 +26205,27 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
+          <t>Ms Mahon</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Ms O Neill</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Mahon</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -25532,7 +26236,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
@@ -25547,7 +26251,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C60" s="4" t="n">
@@ -25562,11 +26266,11 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -25577,11 +26281,11 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -25592,7 +26296,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
@@ -25602,12 +26306,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C64" s="4" t="n">
@@ -25617,12 +26321,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Pasta Salad Box</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
@@ -25632,27 +26336,27 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C66" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
+          <t>Ms O Neill</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
@@ -25662,16 +26366,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Ms Leidierth</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
-        </is>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Neill</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -25682,11 +26382,11 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -25697,11 +26397,11 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Pasta Salad Box</t>
         </is>
       </c>
       <c r="C70" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -25712,11 +26412,11 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -25727,7 +26427,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C72" s="4" t="n">
@@ -25742,7 +26442,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
@@ -25757,7 +26457,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C74" s="4" t="n">
@@ -25767,42 +26467,42 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C76" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
@@ -25812,12 +26512,12 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C78" s="4" t="n">
@@ -25827,31 +26527,27 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
+          <t>Ms Leidierth</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Ms Tomlinson</t>
-        </is>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>Toasted Cheese Panini</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Leidierth</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -25862,11 +26558,11 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -25877,11 +26573,11 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C82" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -25892,7 +26588,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C83" s="4" t="n">
@@ -25907,7 +26603,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C84" s="4" t="n">
@@ -25917,7 +26613,7 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -25932,42 +26628,42 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C86" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C87" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>Meat free salad Box</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C88" s="4" t="n">
@@ -25977,27 +26673,27 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C89" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
+          <t>Ms Tomlinson</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C90" s="4" t="n">
@@ -26007,72 +26703,68 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Mr Dempsey</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Tomlinson</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C92" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C93" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Chorizo Pasta Bake</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C94" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Meat free salad Box</t>
         </is>
       </c>
       <c r="C95" s="4" t="n">
@@ -26082,22 +26774,22 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C96" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -26106,37 +26798,33 @@
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
+          <t>Mr Dempsey</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
         </is>
       </c>
       <c r="C98" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Ms O Boyle</t>
-        </is>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>Chicken, cheese and mayonnaise panini</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="n">
-        <v>1</v>
+          <t>Total for Mr Dempsey</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="n"/>
+      <c r="C99" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -26147,11 +26835,11 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -26162,11 +26850,11 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -26177,11 +26865,11 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Chicken and Chorizo Pasta Bake</t>
         </is>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -26192,7 +26880,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C103" s="4" t="n">
@@ -26202,12 +26890,12 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C104" s="4" t="n">
@@ -26217,42 +26905,42 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers, mashed potatoes and vegetables</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C106" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Pasta Salad Box</t>
+          <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
       <c r="C107" s="4" t="n">
@@ -26262,27 +26950,27 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch NO GRAVY</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C109" s="4" t="n">
@@ -26292,27 +26980,27 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C110" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
+          <t>Ms O Boyle</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C111" s="4" t="n">
@@ -26322,16 +27010,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Ms Gallagher</t>
-        </is>
-      </c>
-      <c r="B112" s="4" t="inlineStr">
-        <is>
-          <t>Tex Mex Nachos</t>
-        </is>
-      </c>
-      <c r="C112" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms O Boyle</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="n"/>
+      <c r="C112" s="5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -26342,7 +27026,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Fish fingers with mashed potatoes and beans</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C113" s="4" t="n">
@@ -26352,67 +27036,67 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Plain Pasta Pot</t>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham Panini</t>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>Toasted Cheese Panini</t>
+          <t>Pasta Salad Box</t>
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Pasta with Tomato and basil sauce</t>
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -26427,27 +27111,27 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>Sausages with mashed potatoes and beans</t>
+          <t>Chicken Curry Madras</t>
         </is>
       </c>
       <c r="C120" s="4" t="n">
@@ -26457,27 +27141,27 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Tex Mex Nachos</t>
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
+          <t>Ms Gallagher</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Toasted Ham and Cheese Panini</t>
+          <t>Fish fingers with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C122" s="4" t="n">
@@ -26487,16 +27171,12 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Ms O Hanlon</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="inlineStr">
-        <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
-        </is>
-      </c>
-      <c r="C123" s="4" t="n">
-        <v>1</v>
+          <t>Total for Ms Gallagher</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n"/>
+      <c r="C123" s="5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -26507,11 +27187,11 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Pasta with Tomato and basil sauce</t>
+          <t>Plain Pasta Pot</t>
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -26522,37 +27202,37 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Toasted Ham Panini</t>
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>Chicken and Cheese Panini</t>
+          <t>Toasted Cheese Panini</t>
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+          <t>Roast chicken lunch</t>
         </is>
       </c>
       <c r="C127" s="4" t="n">
@@ -26562,12 +27242,12 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Roast chicken lunch</t>
+          <t>Roast chicken lunch NO GRAVY</t>
         </is>
       </c>
       <c r="C128" s="4" t="n">
@@ -26577,7 +27257,7 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Ms O Grady</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -26592,12 +27272,12 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>Chicken Curry Madras</t>
+          <t>Sausages with mashed potatoes and beans</t>
         </is>
       </c>
       <c r="C130" s="4" t="n">
@@ -26607,27 +27287,27 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>Tex Mex Nachos</t>
+          <t>Chicken and Cheese Panini</t>
         </is>
       </c>
       <c r="C131" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Ms Kelly</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+          <t>Toasted Ham and Cheese Panini</t>
         </is>
       </c>
       <c r="C132" s="4" t="n">
@@ -26637,12 +27317,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ms O Hanlon</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Traditional Vegetable Soup With freshly baked roll</t>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
         </is>
       </c>
       <c r="C133" s="4" t="n">
@@ -26652,21 +27332,241 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
+          <t>Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Hanlon</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="n"/>
+      <c r="C136" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms O Grady</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="n"/>
+      <c r="C141" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms Kelly</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="n"/>
+      <c r="C145" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>Total for Unknown</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="n"/>
+      <c r="C147" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
           <t>Ms o Hanlon</t>
         </is>
       </c>
-      <c r="B134" s="4" t="inlineStr">
+      <c r="B148" s="4" t="inlineStr">
         <is>
           <t>Toasted Cheese Panini</t>
         </is>
       </c>
-      <c r="C134" s="4" t="n">
+      <c r="C148" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>Total for Ms o Hanlon</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="n"/>
+      <c r="C149" s="5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A145:B145"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/menu_files/chef_weekly_orderSheet_St_Laurences.xlsx
+++ b/menu_files/chef_weekly_orderSheet_St_Laurences.xlsx
@@ -22,6 +22,7 @@
     <sheet name="Friday Teacher Totals" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Friday Total" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Friday Stickers" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="No Data" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4562,7 +4563,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Thursday of St Laurences 13</t>
+          <t>Day Total for Thursday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4861,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Thursday Sticker Sheet for St Laurences 13 (Primary School)</t>
+          <t>Thursday Sticker Sheet for St Laurences 13 (Primary)</t>
         </is>
       </c>
     </row>
@@ -11108,7 +11109,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Friday of St Laurences 13</t>
+          <t>Day Total for Friday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11397,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Friday Sticker Sheet for St Laurences 13 (Primary School)</t>
+          <t>Friday Sticker Sheet for St Laurences 13 (Primary)</t>
         </is>
       </c>
     </row>
@@ -14786,6 +14787,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No orders found for the given filters.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14812,7 +14839,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Monday of St Laurences 13</t>
+          <t>Day Total for Monday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -15110,7 +15137,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Monday Sticker Sheet for St Laurences 13 (Primary School)</t>
+          <t>Monday Sticker Sheet for St Laurences 13 (Primary)</t>
         </is>
       </c>
     </row>
@@ -20698,7 +20725,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Tuesday of St Laurences 13</t>
+          <t>Day Total for Tuesday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -20986,7 +21013,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tuesday Sticker Sheet for St Laurences 13 (Primary School)</t>
+          <t>Tuesday Sticker Sheet for St Laurences 13 (Primary)</t>
         </is>
       </c>
     </row>
@@ -27594,7 +27621,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Wednesday of St Laurences 13</t>
+          <t>Day Total for Wednesday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -27912,7 +27939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Wednesday Sticker Sheet for St Laurences 13 (Primary School)</t>
+          <t>Wednesday Sticker Sheet for St Laurences 13 (Primary)</t>
         </is>
       </c>
     </row>
